--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fgf22-Fgfr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fgf22-Fgfr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>ECs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,40 +543,40 @@
         <v>0.444339</v>
       </c>
       <c r="I2">
-        <v>0.7828424040296197</v>
+        <v>0.3768554877997065</v>
       </c>
       <c r="J2">
-        <v>0.7828424040296197</v>
+        <v>0.3768554877997065</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.033285</v>
+        <v>0.7144740000000001</v>
       </c>
       <c r="N2">
-        <v>0.099855</v>
+        <v>2.143422</v>
       </c>
       <c r="O2">
-        <v>0.007684499559038781</v>
+        <v>0.138796410342318</v>
       </c>
       <c r="P2">
-        <v>0.007684499559038781</v>
+        <v>0.138796410342318</v>
       </c>
       <c r="Q2">
-        <v>0.004929941205000001</v>
+        <v>0.105822887562</v>
       </c>
       <c r="R2">
-        <v>0.044369470845</v>
+        <v>0.952405988058</v>
       </c>
       <c r="S2">
-        <v>0.006015752108562472</v>
+        <v>0.05230618892440249</v>
       </c>
       <c r="T2">
-        <v>0.006015752108562472</v>
+        <v>0.05230618892440249</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +605,10 @@
         <v>0.444339</v>
       </c>
       <c r="I3">
-        <v>0.7828424040296197</v>
+        <v>0.3768554877997065</v>
       </c>
       <c r="J3">
-        <v>0.7828424040296197</v>
+        <v>0.3768554877997065</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +623,22 @@
         <v>12.422619</v>
       </c>
       <c r="O3">
-        <v>0.9560023056192156</v>
+        <v>0.8044215857867821</v>
       </c>
       <c r="P3">
-        <v>0.9560023056192157</v>
+        <v>0.8044215857867821</v>
       </c>
       <c r="Q3">
-        <v>0.6133171226490001</v>
+        <v>0.613317122649</v>
       </c>
       <c r="R3">
-        <v>5.519854103841001</v>
+        <v>5.519854103841</v>
       </c>
       <c r="S3">
-        <v>0.748399143188806</v>
+        <v>0.3031506891082912</v>
       </c>
       <c r="T3">
-        <v>0.7483991431888061</v>
+        <v>0.3031506891082912</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +667,10 @@
         <v>0.444339</v>
       </c>
       <c r="I4">
-        <v>0.7828424040296197</v>
+        <v>0.3768554877997065</v>
       </c>
       <c r="J4">
-        <v>0.7828424040296197</v>
+        <v>0.3768554877997065</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,33 +679,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1572886666666667</v>
+        <v>0.2847646666666667</v>
       </c>
       <c r="N4">
-        <v>0.471866</v>
+        <v>0.8542940000000001</v>
       </c>
       <c r="O4">
-        <v>0.03631319482174546</v>
+        <v>0.05531945672713084</v>
       </c>
       <c r="P4">
-        <v>0.03631319482174546</v>
+        <v>0.05531945672713083</v>
       </c>
       <c r="Q4">
-        <v>0.023296496286</v>
+        <v>0.042177349074</v>
       </c>
       <c r="R4">
-        <v>0.209668466574</v>
+        <v>0.379596141666</v>
       </c>
       <c r="S4">
-        <v>0.02842750873225116</v>
+        <v>0.02084744084971765</v>
       </c>
       <c r="T4">
-        <v>0.02842750873225116</v>
+        <v>0.02084744084971765</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -711,7 +714,7 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -720,46 +723,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.041086</v>
+        <v>0.148113</v>
       </c>
       <c r="H5">
-        <v>0.123258</v>
+        <v>0.444339</v>
       </c>
       <c r="I5">
-        <v>0.2171575959703804</v>
+        <v>0.3768554877997065</v>
       </c>
       <c r="J5">
-        <v>0.2171575959703804</v>
+        <v>0.3768554877997065</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.033285</v>
+        <v>0.007528666666666667</v>
       </c>
       <c r="N5">
-        <v>0.099855</v>
+        <v>0.022586</v>
       </c>
       <c r="O5">
-        <v>0.007684499559038781</v>
+        <v>0.00146254714376898</v>
       </c>
       <c r="P5">
-        <v>0.007684499559038781</v>
+        <v>0.00146254714376898</v>
       </c>
       <c r="Q5">
-        <v>0.00136754751</v>
+        <v>0.001115093406</v>
       </c>
       <c r="R5">
-        <v>0.01230792759</v>
+        <v>0.010035840654</v>
       </c>
       <c r="S5">
-        <v>0.00166874745047631</v>
+        <v>0.0005511689172951265</v>
       </c>
       <c r="T5">
-        <v>0.00166874745047631</v>
+        <v>0.0005511689172951264</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,7 +776,7 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -782,16 +785,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.041086</v>
+        <v>0.2449103333333333</v>
       </c>
       <c r="H6">
-        <v>0.123258</v>
+        <v>0.734731</v>
       </c>
       <c r="I6">
-        <v>0.2171575959703804</v>
+        <v>0.6231445122002934</v>
       </c>
       <c r="J6">
-        <v>0.2171575959703804</v>
+        <v>0.6231445122002934</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.140873</v>
+        <v>0.7144740000000001</v>
       </c>
       <c r="N6">
-        <v>12.422619</v>
+        <v>2.143422</v>
       </c>
       <c r="O6">
-        <v>0.9560023056192156</v>
+        <v>0.138796410342318</v>
       </c>
       <c r="P6">
-        <v>0.9560023056192157</v>
+        <v>0.138796410342318</v>
       </c>
       <c r="Q6">
-        <v>0.170131908078</v>
+        <v>0.174982065498</v>
       </c>
       <c r="R6">
-        <v>1.531187172702</v>
+        <v>1.574838589482</v>
       </c>
       <c r="S6">
-        <v>0.2076031624304097</v>
+        <v>0.08649022141791553</v>
       </c>
       <c r="T6">
-        <v>0.2076031624304097</v>
+        <v>0.08649022141791553</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,7 +838,7 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -844,16 +847,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.041086</v>
+        <v>0.2449103333333333</v>
       </c>
       <c r="H7">
-        <v>0.123258</v>
+        <v>0.734731</v>
       </c>
       <c r="I7">
-        <v>0.2171575959703804</v>
+        <v>0.6231445122002934</v>
       </c>
       <c r="J7">
-        <v>0.2171575959703804</v>
+        <v>0.6231445122002934</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +865,152 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.1572886666666667</v>
+        <v>4.140873</v>
       </c>
       <c r="N7">
-        <v>0.471866</v>
+        <v>12.422619</v>
       </c>
       <c r="O7">
-        <v>0.03631319482174546</v>
+        <v>0.8044215857867821</v>
       </c>
       <c r="P7">
-        <v>0.03631319482174546</v>
+        <v>0.8044215857867821</v>
       </c>
       <c r="Q7">
-        <v>0.006462362158666666</v>
+        <v>1.014142586721</v>
       </c>
       <c r="R7">
-        <v>0.058161259428</v>
+        <v>9.127283280489001</v>
       </c>
       <c r="S7">
-        <v>0.007885686089494311</v>
+        <v>0.5012708966784909</v>
       </c>
       <c r="T7">
-        <v>0.007885686089494311</v>
+        <v>0.5012708966784909</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.2449103333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.734731</v>
+      </c>
+      <c r="I8">
+        <v>0.6231445122002934</v>
+      </c>
+      <c r="J8">
+        <v>0.6231445122002934</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.2847646666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.8542940000000001</v>
+      </c>
+      <c r="O8">
+        <v>0.05531945672713084</v>
+      </c>
+      <c r="P8">
+        <v>0.05531945672713083</v>
+      </c>
+      <c r="Q8">
+        <v>0.0697418094348889</v>
+      </c>
+      <c r="R8">
+        <v>0.6276762849140001</v>
+      </c>
+      <c r="S8">
+        <v>0.03447201587741319</v>
+      </c>
+      <c r="T8">
+        <v>0.03447201587741319</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.2449103333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.734731</v>
+      </c>
+      <c r="I9">
+        <v>0.6231445122002934</v>
+      </c>
+      <c r="J9">
+        <v>0.6231445122002934</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.007528666666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.022586</v>
+      </c>
+      <c r="O9">
+        <v>0.00146254714376898</v>
+      </c>
+      <c r="P9">
+        <v>0.00146254714376898</v>
+      </c>
+      <c r="Q9">
+        <v>0.001843848262888889</v>
+      </c>
+      <c r="R9">
+        <v>0.016594634366</v>
+      </c>
+      <c r="S9">
+        <v>0.0009113782264738535</v>
+      </c>
+      <c r="T9">
+        <v>0.0009113782264738534</v>
       </c>
     </row>
   </sheetData>
